--- a/tüfetahmin.xlsx
+++ b/tüfetahmin.xlsx
@@ -2227,7 +2227,7 @@
         <v>45596</v>
       </c>
       <c r="B227" t="n">
-        <v>48.08429945645705</v>
+        <v>48.1881750290321</v>
       </c>
     </row>
     <row r="228">
@@ -2235,7 +2235,7 @@
         <v>45626</v>
       </c>
       <c r="B228" t="n">
-        <v>46.23972447771752</v>
+        <v>46.25751416618466</v>
       </c>
     </row>
     <row r="229">
@@ -2243,7 +2243,7 @@
         <v>45657</v>
       </c>
       <c r="B229" t="n">
-        <v>45.22491929135488</v>
+        <v>45.11500887253958</v>
       </c>
     </row>
     <row r="230">
@@ -2251,7 +2251,7 @@
         <v>45688</v>
       </c>
       <c r="B230" t="n">
-        <v>42.90055755318294</v>
+        <v>42.73023499498878</v>
       </c>
     </row>
     <row r="231">
@@ -2259,7 +2259,7 @@
         <v>45716</v>
       </c>
       <c r="B231" t="n">
-        <v>39.75091554813766</v>
+        <v>39.49547804616436</v>
       </c>
     </row>
     <row r="232">
@@ -2267,7 +2267,7 @@
         <v>45747</v>
       </c>
       <c r="B232" t="n">
-        <v>38.53118851117199</v>
+        <v>38.189782896293</v>
       </c>
     </row>
     <row r="233">
@@ -2275,7 +2275,7 @@
         <v>45777</v>
       </c>
       <c r="B233" t="n">
-        <v>37.51985897266648</v>
+        <v>37.08737390008054</v>
       </c>
     </row>
     <row r="234">
@@ -2283,7 +2283,7 @@
         <v>45808</v>
       </c>
       <c r="B234" t="n">
-        <v>36.40566196129804</v>
+        <v>35.87273347348925</v>
       </c>
     </row>
     <row r="235">
@@ -2291,7 +2291,7 @@
         <v>45838</v>
       </c>
       <c r="B235" t="n">
-        <v>37.41342304644759</v>
+        <v>36.7700165391609</v>
       </c>
     </row>
     <row r="236">
@@ -2299,7 +2299,7 @@
         <v>45869</v>
       </c>
       <c r="B236" t="n">
-        <v>35.84134269575188</v>
+        <v>35.10726836220268</v>
       </c>
     </row>
     <row r="237">
@@ -2307,7 +2307,7 @@
         <v>45900</v>
       </c>
       <c r="B237" t="n">
-        <v>34.87516393045185</v>
+        <v>34.0610602260206</v>
       </c>
     </row>
     <row r="238">
@@ -2315,7 +2315,7 @@
         <v>45930</v>
       </c>
       <c r="B238" t="n">
-        <v>33.11323753953226</v>
+        <v>32.23724604277984</v>
       </c>
     </row>
     <row r="239">
@@ -2323,7 +2323,7 @@
         <v>45961</v>
       </c>
       <c r="B239" t="n">
-        <v>32.06157154750249</v>
+        <v>31.02825584500138</v>
       </c>
     </row>
     <row r="240">
@@ -2331,7 +2331,7 @@
         <v>45991</v>
       </c>
       <c r="B240" t="n">
-        <v>31.45428434503441</v>
+        <v>30.42377667794223</v>
       </c>
     </row>
     <row r="241">
@@ -2339,7 +2339,7 @@
         <v>46022</v>
       </c>
       <c r="B241" t="n">
-        <v>30.51814968695032</v>
+        <v>29.52886148959099</v>
       </c>
     </row>
     <row r="242">
@@ -2347,7 +2347,7 @@
         <v>46053</v>
       </c>
       <c r="B242" t="n">
-        <v>27.61967648141106</v>
+        <v>26.64276715439116</v>
       </c>
     </row>
     <row r="243">
@@ -2355,7 +2355,7 @@
         <v>46081</v>
       </c>
       <c r="B243" t="n">
-        <v>26.32433013226763</v>
+        <v>25.36469948535802</v>
       </c>
     </row>
     <row r="244">
@@ -2363,7 +2363,7 @@
         <v>46112</v>
       </c>
       <c r="B244" t="n">
-        <v>25.11825022919203</v>
+        <v>24.16251938347651</v>
       </c>
     </row>
   </sheetData>

--- a/tüfetahmin.xlsx
+++ b/tüfetahmin.xlsx
@@ -2227,7 +2227,7 @@
         <v>45596</v>
       </c>
       <c r="B227" t="n">
-        <v>48.1881750290321</v>
+        <v>47.95477076938668</v>
       </c>
     </row>
     <row r="228">
@@ -2235,7 +2235,7 @@
         <v>45626</v>
       </c>
       <c r="B228" t="n">
-        <v>46.25751416618466</v>
+        <v>45.9457999431885</v>
       </c>
     </row>
     <row r="229">
@@ -2243,7 +2243,7 @@
         <v>45657</v>
       </c>
       <c r="B229" t="n">
-        <v>45.11500887253958</v>
+        <v>44.73013079403005</v>
       </c>
     </row>
     <row r="230">
@@ -2251,7 +2251,7 @@
         <v>45688</v>
       </c>
       <c r="B230" t="n">
-        <v>42.73023499498878</v>
+        <v>41.43099650459114</v>
       </c>
     </row>
     <row r="231">
@@ -2259,7 +2259,7 @@
         <v>45716</v>
       </c>
       <c r="B231" t="n">
-        <v>39.49547804616436</v>
+        <v>38.0896292917662</v>
       </c>
     </row>
     <row r="232">
@@ -2267,7 +2267,7 @@
         <v>45747</v>
       </c>
       <c r="B232" t="n">
-        <v>38.189782896293</v>
+        <v>36.43941309643488</v>
       </c>
     </row>
     <row r="233">
@@ -2275,7 +2275,7 @@
         <v>45777</v>
       </c>
       <c r="B233" t="n">
-        <v>37.08737390008054</v>
+        <v>34.99555431471328</v>
       </c>
     </row>
     <row r="234">
@@ -2283,7 +2283,7 @@
         <v>45808</v>
       </c>
       <c r="B234" t="n">
-        <v>35.87273347348925</v>
+        <v>33.53858884876855</v>
       </c>
     </row>
     <row r="235">
@@ -2291,7 +2291,7 @@
         <v>45838</v>
       </c>
       <c r="B235" t="n">
-        <v>36.7700165391609</v>
+        <v>34.51575880168438</v>
       </c>
     </row>
     <row r="236">
@@ -2299,7 +2299,7 @@
         <v>45869</v>
       </c>
       <c r="B236" t="n">
-        <v>35.10726836220268</v>
+        <v>33.04699196260237</v>
       </c>
     </row>
     <row r="237">
@@ -2307,7 +2307,7 @@
         <v>45900</v>
       </c>
       <c r="B237" t="n">
-        <v>34.0610602260206</v>
+        <v>32.27159658815013</v>
       </c>
     </row>
     <row r="238">
@@ -2315,7 +2315,7 @@
         <v>45930</v>
       </c>
       <c r="B238" t="n">
-        <v>32.23724604277984</v>
+        <v>30.81355056452284</v>
       </c>
     </row>
     <row r="239">
@@ -2323,7 +2323,7 @@
         <v>45961</v>
       </c>
       <c r="B239" t="n">
-        <v>31.02825584500138</v>
+        <v>29.92155014088231</v>
       </c>
     </row>
     <row r="240">
@@ -2331,7 +2331,7 @@
         <v>45991</v>
       </c>
       <c r="B240" t="n">
-        <v>30.42377667794223</v>
+        <v>29.49601983242187</v>
       </c>
     </row>
     <row r="241">
@@ -2339,7 +2339,7 @@
         <v>46022</v>
       </c>
       <c r="B241" t="n">
-        <v>29.52886148959099</v>
+        <v>29.0798620323244</v>
       </c>
     </row>
     <row r="242">
@@ -2347,7 +2347,7 @@
         <v>46053</v>
       </c>
       <c r="B242" t="n">
-        <v>26.64276715439116</v>
+        <v>27.74665938406453</v>
       </c>
     </row>
     <row r="243">
@@ -2355,7 +2355,7 @@
         <v>46081</v>
       </c>
       <c r="B243" t="n">
-        <v>25.36469948535802</v>
+        <v>26.97884247874631</v>
       </c>
     </row>
     <row r="244">
@@ -2363,7 +2363,7 @@
         <v>46112</v>
       </c>
       <c r="B244" t="n">
-        <v>24.16251938347651</v>
+        <v>26.37583038012132</v>
       </c>
     </row>
   </sheetData>

--- a/tüfetahmin.xlsx
+++ b/tüfetahmin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,7 +523,7 @@
         <v>39113</v>
       </c>
       <c r="B14" t="n">
-        <v>9.929594561786859</v>
+        <v>9.929594561786882</v>
       </c>
     </row>
     <row r="15">
@@ -531,7 +531,7 @@
         <v>39141</v>
       </c>
       <c r="B15" t="n">
-        <v>10.15826873385013</v>
+        <v>10.15826873385011</v>
       </c>
     </row>
     <row r="16">
@@ -539,7 +539,7 @@
         <v>39172</v>
       </c>
       <c r="B16" t="n">
-        <v>10.86326300531484</v>
+        <v>10.86326300531482</v>
       </c>
     </row>
     <row r="17">
@@ -547,7 +547,7 @@
         <v>39202</v>
       </c>
       <c r="B17" t="n">
-        <v>10.71996185632547</v>
+        <v>10.71996185632549</v>
       </c>
     </row>
     <row r="18">
@@ -563,7 +563,7 @@
         <v>39263</v>
       </c>
       <c r="B19" t="n">
-        <v>8.598305216512481</v>
+        <v>8.598305216512504</v>
       </c>
     </row>
     <row r="20">
@@ -571,7 +571,7 @@
         <v>39294</v>
       </c>
       <c r="B20" t="n">
-        <v>6.899475794017906</v>
+        <v>6.899475794017884</v>
       </c>
     </row>
     <row r="21">
@@ -579,7 +579,7 @@
         <v>39325</v>
       </c>
       <c r="B21" t="n">
-        <v>7.394502516453727</v>
+        <v>7.394502516453749</v>
       </c>
     </row>
     <row r="22">
@@ -587,7 +587,7 @@
         <v>39355</v>
       </c>
       <c r="B22" t="n">
-        <v>7.124837550646013</v>
+        <v>7.12483755064599</v>
       </c>
     </row>
     <row r="23">
@@ -595,7 +595,7 @@
         <v>39386</v>
       </c>
       <c r="B23" t="n">
-        <v>7.699856571299168</v>
+        <v>7.699856571299146</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>39478</v>
       </c>
       <c r="B26" t="n">
-        <v>8.171378091872828</v>
+        <v>8.171378091872805</v>
       </c>
     </row>
     <row r="27">
@@ -627,7 +627,7 @@
         <v>39507</v>
       </c>
       <c r="B27" t="n">
-        <v>9.10423691540827</v>
+        <v>9.104236915408315</v>
       </c>
     </row>
     <row r="28">
@@ -635,7 +635,7 @@
         <v>39538</v>
       </c>
       <c r="B28" t="n">
-        <v>9.152320767051636</v>
+        <v>9.152320767051659</v>
       </c>
     </row>
     <row r="29">
@@ -643,7 +643,7 @@
         <v>39568</v>
       </c>
       <c r="B29" t="n">
-        <v>9.660518194215184</v>
+        <v>9.660518194215161</v>
       </c>
     </row>
     <row r="30">
@@ -683,7 +683,7 @@
         <v>39721</v>
       </c>
       <c r="B34" t="n">
-        <v>11.12538357239703</v>
+        <v>11.12538357239705</v>
       </c>
     </row>
     <row r="35">
@@ -691,7 +691,7 @@
         <v>39752</v>
       </c>
       <c r="B35" t="n">
-        <v>11.98570126866194</v>
+        <v>11.98570126866196</v>
       </c>
     </row>
     <row r="36">
@@ -699,7 +699,7 @@
         <v>39782</v>
       </c>
       <c r="B36" t="n">
-        <v>10.75971124097623</v>
+        <v>10.75971124097626</v>
       </c>
     </row>
     <row r="37">
@@ -715,7 +715,7 @@
         <v>39844</v>
       </c>
       <c r="B38" t="n">
-        <v>9.500476384919022</v>
+        <v>9.500476384918999</v>
       </c>
     </row>
     <row r="39">
@@ -731,7 +731,7 @@
         <v>39903</v>
       </c>
       <c r="B40" t="n">
-        <v>7.88580555000995</v>
+        <v>7.885805550009972</v>
       </c>
     </row>
     <row r="41">
@@ -739,7 +739,7 @@
         <v>39933</v>
       </c>
       <c r="B41" t="n">
-        <v>6.126055370115879</v>
+        <v>6.126055370115857</v>
       </c>
     </row>
     <row r="42">
@@ -755,7 +755,7 @@
         <v>39994</v>
       </c>
       <c r="B43" t="n">
-        <v>5.734256682415362</v>
+        <v>5.734256682415384</v>
       </c>
     </row>
     <row r="44">
@@ -763,7 +763,7 @@
         <v>40025</v>
       </c>
       <c r="B44" t="n">
-        <v>5.392535392535369</v>
+        <v>5.392535392535391</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>40117</v>
       </c>
       <c r="B47" t="n">
-        <v>5.076046817299873</v>
+        <v>5.076046817299851</v>
       </c>
     </row>
     <row r="48">
@@ -795,7 +795,7 @@
         <v>40147</v>
       </c>
       <c r="B48" t="n">
-        <v>5.530726256983254</v>
+        <v>5.530726256983232</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>40237</v>
       </c>
       <c r="B51" t="n">
-        <v>10.12784533832243</v>
+        <v>10.12784533832241</v>
       </c>
     </row>
     <row r="52">
@@ -835,7 +835,7 @@
         <v>40298</v>
       </c>
       <c r="B53" t="n">
-        <v>10.19426456984274</v>
+        <v>10.19426456984276</v>
       </c>
     </row>
     <row r="54">
@@ -851,7 +851,7 @@
         <v>40359</v>
       </c>
       <c r="B55" t="n">
-        <v>8.367509334639166</v>
+        <v>8.367509334639145</v>
       </c>
     </row>
     <row r="56">
@@ -883,7 +883,7 @@
         <v>40482</v>
       </c>
       <c r="B59" t="n">
-        <v>8.619251846557031</v>
+        <v>8.619251846557052</v>
       </c>
     </row>
     <row r="60">
@@ -923,7 +923,7 @@
         <v>40633</v>
       </c>
       <c r="B64" t="n">
-        <v>3.986037608377457</v>
+        <v>3.986037608377435</v>
       </c>
     </row>
     <row r="65">
@@ -1011,7 +1011,7 @@
         <v>40968</v>
       </c>
       <c r="B75" t="n">
-        <v>10.43331702278036</v>
+        <v>10.43331702278039</v>
       </c>
     </row>
     <row r="76">
@@ -1027,7 +1027,7 @@
         <v>41029</v>
       </c>
       <c r="B77" t="n">
-        <v>11.13794954374667</v>
+        <v>11.13794954374665</v>
       </c>
     </row>
     <row r="78">
@@ -1059,7 +1059,7 @@
         <v>41152</v>
       </c>
       <c r="B81" t="n">
-        <v>8.883235278528634</v>
+        <v>8.883235278528655</v>
       </c>
     </row>
     <row r="82">
@@ -1067,7 +1067,7 @@
         <v>41182</v>
       </c>
       <c r="B82" t="n">
-        <v>9.18512283655113</v>
+        <v>9.185122836551107</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>41274</v>
       </c>
       <c r="B85" t="n">
-        <v>6.163803833706738</v>
+        <v>6.16380383370676</v>
       </c>
     </row>
     <row r="86">
@@ -1107,7 +1107,7 @@
         <v>41333</v>
       </c>
       <c r="B87" t="n">
-        <v>7.025403702244959</v>
+        <v>7.025403702244937</v>
       </c>
     </row>
     <row r="88">
@@ -1123,7 +1123,7 @@
         <v>41394</v>
       </c>
       <c r="B89" t="n">
-        <v>6.133784110118312</v>
+        <v>6.133784110118334</v>
       </c>
     </row>
     <row r="90">
@@ -1131,7 +1131,7 @@
         <v>41425</v>
       </c>
       <c r="B90" t="n">
-        <v>6.514689511640248</v>
+        <v>6.514689511640226</v>
       </c>
     </row>
     <row r="91">
@@ -1147,7 +1147,7 @@
         <v>41486</v>
       </c>
       <c r="B92" t="n">
-        <v>8.884428997993044</v>
+        <v>8.884428997993066</v>
       </c>
     </row>
     <row r="93">
@@ -1163,7 +1163,7 @@
         <v>41547</v>
       </c>
       <c r="B94" t="n">
-        <v>7.882437966755007</v>
+        <v>7.882437966755029</v>
       </c>
     </row>
     <row r="95">
@@ -1179,7 +1179,7 @@
         <v>41608</v>
       </c>
       <c r="B96" t="n">
-        <v>7.315695320591264</v>
+        <v>7.315695320591287</v>
       </c>
     </row>
     <row r="97">
@@ -1187,7 +1187,7 @@
         <v>41639</v>
       </c>
       <c r="B97" t="n">
-        <v>7.400459597617637</v>
+        <v>7.400459597617592</v>
       </c>
     </row>
     <row r="98">
@@ -1203,7 +1203,7 @@
         <v>41698</v>
       </c>
       <c r="B99" t="n">
-        <v>7.889047334284061</v>
+        <v>7.889047334284038</v>
       </c>
     </row>
     <row r="100">
@@ -1211,7 +1211,7 @@
         <v>41729</v>
       </c>
       <c r="B100" t="n">
-        <v>8.385504729698855</v>
+        <v>8.385504729698878</v>
       </c>
     </row>
     <row r="101">
@@ -1243,7 +1243,7 @@
         <v>41851</v>
       </c>
       <c r="B104" t="n">
-        <v>9.319367020320101</v>
+        <v>9.31936702032008</v>
       </c>
     </row>
     <row r="105">
@@ -1259,7 +1259,7 @@
         <v>41912</v>
       </c>
       <c r="B106" t="n">
-        <v>8.856236880889611</v>
+        <v>8.856236880889634</v>
       </c>
     </row>
     <row r="107">
@@ -1267,7 +1267,7 @@
         <v>41943</v>
       </c>
       <c r="B107" t="n">
-        <v>8.962884969728858</v>
+        <v>8.962884969728835</v>
       </c>
     </row>
     <row r="108">
@@ -1275,7 +1275,7 @@
         <v>41973</v>
       </c>
       <c r="B108" t="n">
-        <v>9.150728197929459</v>
+        <v>9.150728197929435</v>
       </c>
     </row>
     <row r="109">
@@ -1283,7 +1283,7 @@
         <v>42004</v>
       </c>
       <c r="B109" t="n">
-        <v>8.169948910527891</v>
+        <v>8.169948910527935</v>
       </c>
     </row>
     <row r="110">
@@ -1291,7 +1291,7 @@
         <v>42035</v>
       </c>
       <c r="B110" t="n">
-        <v>7.240729639462185</v>
+        <v>7.240729639462207</v>
       </c>
     </row>
     <row r="111">
@@ -1299,7 +1299,7 @@
         <v>42063</v>
       </c>
       <c r="B111" t="n">
-        <v>7.546687132258856</v>
+        <v>7.5466871322589</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>42155</v>
       </c>
       <c r="B114" t="n">
-        <v>8.092988562904013</v>
+        <v>8.092988562904036</v>
       </c>
     </row>
     <row r="115">
@@ -1331,7 +1331,7 @@
         <v>42185</v>
       </c>
       <c r="B115" t="n">
-        <v>7.204527615978873</v>
+        <v>7.204527615978851</v>
       </c>
     </row>
     <row r="116">
@@ -1339,7 +1339,7 @@
         <v>42216</v>
       </c>
       <c r="B116" t="n">
-        <v>6.814162931282608</v>
+        <v>6.81416293128263</v>
       </c>
     </row>
     <row r="117">
@@ -1347,7 +1347,7 @@
         <v>42247</v>
       </c>
       <c r="B117" t="n">
-        <v>7.140509449465848</v>
+        <v>7.140509449465871</v>
       </c>
     </row>
     <row r="118">
@@ -1355,7 +1355,7 @@
         <v>42277</v>
       </c>
       <c r="B118" t="n">
-        <v>7.946992697136346</v>
+        <v>7.946992697136324</v>
       </c>
     </row>
     <row r="119">
@@ -1363,7 +1363,7 @@
         <v>42308</v>
       </c>
       <c r="B119" t="n">
-        <v>7.581430929661392</v>
+        <v>7.581430929661415</v>
       </c>
     </row>
     <row r="120">
@@ -1371,7 +1371,7 @@
         <v>42338</v>
       </c>
       <c r="B120" t="n">
-        <v>8.102242585001207</v>
+        <v>8.102242585001228</v>
       </c>
     </row>
     <row r="121">
@@ -1379,7 +1379,7 @@
         <v>42369</v>
       </c>
       <c r="B121" t="n">
-        <v>8.808331987728103</v>
+        <v>8.80833198772808</v>
       </c>
     </row>
     <row r="122">
@@ -1387,7 +1387,7 @@
         <v>42400</v>
       </c>
       <c r="B122" t="n">
-        <v>9.578758235176688</v>
+        <v>9.578758235176664</v>
       </c>
     </row>
     <row r="123">
@@ -1395,7 +1395,7 @@
         <v>42429</v>
       </c>
       <c r="B123" t="n">
-        <v>8.77735490009519</v>
+        <v>8.777354900095169</v>
       </c>
     </row>
     <row r="124">
@@ -1427,7 +1427,7 @@
         <v>42551</v>
       </c>
       <c r="B127" t="n">
-        <v>7.637470617702569</v>
+        <v>7.637470617702591</v>
       </c>
     </row>
     <row r="128">
@@ -1435,7 +1435,7 @@
         <v>42582</v>
       </c>
       <c r="B128" t="n">
-        <v>8.793408793408798</v>
+        <v>8.793408793408775</v>
       </c>
     </row>
     <row r="129">
@@ -1443,7 +1443,7 @@
         <v>42613</v>
       </c>
       <c r="B129" t="n">
-        <v>8.045095482782472</v>
+        <v>8.045095482782427</v>
       </c>
     </row>
     <row r="130">
@@ -1459,7 +1459,7 @@
         <v>42674</v>
       </c>
       <c r="B131" t="n">
-        <v>7.15943113772457</v>
+        <v>7.159431137724548</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>42766</v>
       </c>
       <c r="B134" t="n">
-        <v>9.218772773648132</v>
+        <v>9.218772773648155</v>
       </c>
     </row>
     <row r="135">
@@ -1499,7 +1499,7 @@
         <v>42825</v>
       </c>
       <c r="B136" t="n">
-        <v>11.29179275896013</v>
+        <v>11.29179275896015</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>42916</v>
       </c>
       <c r="B139" t="n">
-        <v>10.90108473848135</v>
+        <v>10.90108473848137</v>
       </c>
     </row>
     <row r="140">
@@ -1531,7 +1531,7 @@
         <v>42947</v>
       </c>
       <c r="B140" t="n">
-        <v>9.788378512279694</v>
+        <v>9.788378512279717</v>
       </c>
     </row>
     <row r="141">
@@ -1539,7 +1539,7 @@
         <v>42978</v>
       </c>
       <c r="B141" t="n">
-        <v>10.67930153321972</v>
+        <v>10.67930153321974</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>43069</v>
       </c>
       <c r="B144" t="n">
-        <v>12.98426044960215</v>
+        <v>12.98426044960217</v>
       </c>
     </row>
     <row r="145">
@@ -1571,7 +1571,7 @@
         <v>43100</v>
       </c>
       <c r="B145" t="n">
-        <v>11.91973747179871</v>
+        <v>11.91973747179873</v>
       </c>
     </row>
     <row r="146">
@@ -1579,7 +1579,7 @@
         <v>43131</v>
       </c>
       <c r="B146" t="n">
-        <v>10.34563288183095</v>
+        <v>10.34563288183092</v>
       </c>
     </row>
     <row r="147">
@@ -1595,7 +1595,7 @@
         <v>43190</v>
       </c>
       <c r="B148" t="n">
-        <v>10.23456951906698</v>
+        <v>10.23456951906696</v>
       </c>
     </row>
     <row r="149">
@@ -1603,7 +1603,7 @@
         <v>43220</v>
       </c>
       <c r="B149" t="n">
-        <v>10.84952947644144</v>
+        <v>10.84952947644147</v>
       </c>
     </row>
     <row r="150">
@@ -1619,7 +1619,7 @@
         <v>43281</v>
       </c>
       <c r="B151" t="n">
-        <v>15.38511201497841</v>
+        <v>15.38511201497839</v>
       </c>
     </row>
     <row r="152">
@@ -1659,7 +1659,7 @@
         <v>43434</v>
       </c>
       <c r="B156" t="n">
-        <v>21.61879574389571</v>
+        <v>21.61879574389569</v>
       </c>
     </row>
     <row r="157">
@@ -1667,7 +1667,7 @@
         <v>43465</v>
       </c>
       <c r="B157" t="n">
-        <v>20.30176231636178</v>
+        <v>20.30176231636176</v>
       </c>
     </row>
     <row r="158">
@@ -1715,7 +1715,7 @@
         <v>43646</v>
       </c>
       <c r="B163" t="n">
-        <v>15.72012085944494</v>
+        <v>15.72012085944496</v>
       </c>
     </row>
     <row r="164">
@@ -1795,7 +1795,7 @@
         <v>43951</v>
       </c>
       <c r="B173" t="n">
-        <v>10.93669897224323</v>
+        <v>10.93669897224321</v>
       </c>
     </row>
     <row r="174">
@@ -1803,7 +1803,7 @@
         <v>43982</v>
       </c>
       <c r="B174" t="n">
-        <v>11.39001741149159</v>
+        <v>11.39001741149157</v>
       </c>
     </row>
     <row r="175">
@@ -1811,7 +1811,7 @@
         <v>44012</v>
       </c>
       <c r="B175" t="n">
-        <v>12.62239199284385</v>
+        <v>12.62239199284383</v>
       </c>
     </row>
     <row r="176">
@@ -1827,7 +1827,7 @@
         <v>44074</v>
       </c>
       <c r="B177" t="n">
-        <v>11.77040961120044</v>
+        <v>11.77040961120046</v>
       </c>
     </row>
     <row r="178">
@@ -1835,7 +1835,7 @@
         <v>44104</v>
       </c>
       <c r="B178" t="n">
-        <v>11.74831397527161</v>
+        <v>11.74831397527163</v>
       </c>
     </row>
     <row r="179">
@@ -1851,7 +1851,7 @@
         <v>44165</v>
       </c>
       <c r="B180" t="n">
-        <v>14.02630074328188</v>
+        <v>14.02630074328186</v>
       </c>
     </row>
     <row r="181">
@@ -1859,7 +1859,7 @@
         <v>44196</v>
       </c>
       <c r="B181" t="n">
-        <v>14.59931895573214</v>
+        <v>14.59931895573212</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>44286</v>
       </c>
       <c r="B184" t="n">
-        <v>16.19024368591588</v>
+        <v>16.19024368591591</v>
       </c>
     </row>
     <row r="185">
@@ -1891,7 +1891,7 @@
         <v>44316</v>
       </c>
       <c r="B185" t="n">
-        <v>17.14015359901415</v>
+        <v>17.14015359901417</v>
       </c>
     </row>
     <row r="186">
@@ -1899,7 +1899,7 @@
         <v>44347</v>
       </c>
       <c r="B186" t="n">
-        <v>16.59285311102428</v>
+        <v>16.5928531110243</v>
       </c>
     </row>
     <row r="187">
@@ -1907,7 +1907,7 @@
         <v>44377</v>
       </c>
       <c r="B187" t="n">
-        <v>17.52533058560877</v>
+        <v>17.52533058560879</v>
       </c>
     </row>
     <row r="188">
@@ -1915,7 +1915,7 @@
         <v>44408</v>
       </c>
       <c r="B188" t="n">
-        <v>18.95168174833528</v>
+        <v>18.95168174833533</v>
       </c>
     </row>
     <row r="189">
@@ -1923,7 +1923,7 @@
         <v>44439</v>
       </c>
       <c r="B189" t="n">
-        <v>19.25266075622609</v>
+        <v>19.25266075622605</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>44530</v>
       </c>
       <c r="B192" t="n">
-        <v>21.31252757832243</v>
+        <v>21.31252757832245</v>
       </c>
     </row>
     <row r="193">
@@ -1963,7 +1963,7 @@
         <v>44592</v>
       </c>
       <c r="B194" t="n">
-        <v>48.69082407948564</v>
+        <v>48.69082407948567</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>44681</v>
       </c>
       <c r="B197" t="n">
-        <v>69.97107003306284</v>
+        <v>69.9710700330628</v>
       </c>
     </row>
     <row r="198">
@@ -1995,7 +1995,7 @@
         <v>44712</v>
       </c>
       <c r="B198" t="n">
-        <v>73.49595009775625</v>
+        <v>73.49595009775626</v>
       </c>
     </row>
     <row r="199">
@@ -2003,7 +2003,7 @@
         <v>44742</v>
       </c>
       <c r="B199" t="n">
-        <v>78.61839701906919</v>
+        <v>78.61839701906916</v>
       </c>
     </row>
     <row r="200">
@@ -2011,7 +2011,7 @@
         <v>44773</v>
       </c>
       <c r="B200" t="n">
-        <v>79.60205253337162</v>
+        <v>79.60205253337158</v>
       </c>
     </row>
     <row r="201">
@@ -2019,7 +2019,7 @@
         <v>44804</v>
       </c>
       <c r="B201" t="n">
-        <v>80.20759403832498</v>
+        <v>80.20759403832503</v>
       </c>
     </row>
     <row r="202">
@@ -2027,7 +2027,7 @@
         <v>44834</v>
       </c>
       <c r="B202" t="n">
-        <v>83.45249360389724</v>
+        <v>83.45249360389727</v>
       </c>
     </row>
     <row r="203">
@@ -2035,7 +2035,7 @@
         <v>44865</v>
       </c>
       <c r="B203" t="n">
-        <v>85.51478641840089</v>
+        <v>85.51478641840087</v>
       </c>
     </row>
     <row r="204">
@@ -2051,7 +2051,7 @@
         <v>44926</v>
       </c>
       <c r="B205" t="n">
-        <v>64.26959749617882</v>
+        <v>64.26959749617878</v>
       </c>
     </row>
     <row r="206">
@@ -2059,7 +2059,7 @@
         <v>44957</v>
       </c>
       <c r="B206" t="n">
-        <v>57.68248103455051</v>
+        <v>57.68248103455049</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>45046</v>
       </c>
       <c r="B209" t="n">
-        <v>43.68416980735863</v>
+        <v>43.68416980735861</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>45138</v>
       </c>
       <c r="B212" t="n">
-        <v>47.83173331468586</v>
+        <v>47.83173331468588</v>
       </c>
     </row>
     <row r="213">
@@ -2123,7 +2123,7 @@
         <v>45199</v>
       </c>
       <c r="B214" t="n">
-        <v>61.52986464671557</v>
+        <v>61.52986464671552</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>45291</v>
       </c>
       <c r="B217" t="n">
-        <v>64.77291860516638</v>
+        <v>64.77291860516642</v>
       </c>
     </row>
     <row r="218">
@@ -2155,7 +2155,7 @@
         <v>45322</v>
       </c>
       <c r="B218" t="n">
-        <v>64.85691494665473</v>
+        <v>64.85691494665475</v>
       </c>
     </row>
     <row r="219">
@@ -2171,7 +2171,7 @@
         <v>45382</v>
       </c>
       <c r="B220" t="n">
-        <v>68.49537310494193</v>
+        <v>68.49537310494189</v>
       </c>
     </row>
     <row r="221">
@@ -2179,7 +2179,7 @@
         <v>45412</v>
       </c>
       <c r="B221" t="n">
-        <v>69.80246761638101</v>
+        <v>69.80246761638105</v>
       </c>
     </row>
     <row r="222">
@@ -2187,7 +2187,7 @@
         <v>45443</v>
       </c>
       <c r="B222" t="n">
-        <v>75.44594802398888</v>
+        <v>75.44594802398889</v>
       </c>
     </row>
     <row r="223">
@@ -2203,7 +2203,7 @@
         <v>45504</v>
       </c>
       <c r="B224" t="n">
-        <v>61.78100335171368</v>
+        <v>61.78100335171371</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>45596</v>
       </c>
       <c r="B227" t="n">
-        <v>47.95477076938668</v>
+        <v>48.58470879475847</v>
       </c>
     </row>
     <row r="228">
@@ -2235,7 +2235,7 @@
         <v>45626</v>
       </c>
       <c r="B228" t="n">
-        <v>45.9457999431885</v>
+        <v>46.85407448565173</v>
       </c>
     </row>
     <row r="229">
@@ -2243,7 +2243,7 @@
         <v>45657</v>
       </c>
       <c r="B229" t="n">
-        <v>44.73013079403005</v>
+        <v>45.18828935242154</v>
       </c>
     </row>
     <row r="230">
@@ -2251,7 +2251,7 @@
         <v>45688</v>
       </c>
       <c r="B230" t="n">
-        <v>41.43099650459114</v>
+        <v>42.54070265292131</v>
       </c>
     </row>
     <row r="231">
@@ -2259,7 +2259,7 @@
         <v>45716</v>
       </c>
       <c r="B231" t="n">
-        <v>38.0896292917662</v>
+        <v>39.96332350645415</v>
       </c>
     </row>
     <row r="232">
@@ -2267,7 +2267,7 @@
         <v>45747</v>
       </c>
       <c r="B232" t="n">
-        <v>36.43941309643488</v>
+        <v>38.70076228630423</v>
       </c>
     </row>
     <row r="233">
@@ -2275,7 +2275,7 @@
         <v>45777</v>
       </c>
       <c r="B233" t="n">
-        <v>34.99555431471328</v>
+        <v>37.6658855538645</v>
       </c>
     </row>
     <row r="234">
@@ -2283,7 +2283,7 @@
         <v>45808</v>
       </c>
       <c r="B234" t="n">
-        <v>33.53858884876855</v>
+        <v>36.50097894001585</v>
       </c>
     </row>
     <row r="235">
@@ -2291,7 +2291,7 @@
         <v>45838</v>
       </c>
       <c r="B235" t="n">
-        <v>34.51575880168438</v>
+        <v>37.76931134592974</v>
       </c>
     </row>
     <row r="236">
@@ -2299,7 +2299,7 @@
         <v>45869</v>
       </c>
       <c r="B236" t="n">
-        <v>33.04699196260237</v>
+        <v>36.64344748596415</v>
       </c>
     </row>
     <row r="237">
@@ -2307,7 +2307,7 @@
         <v>45900</v>
       </c>
       <c r="B237" t="n">
-        <v>32.27159658815013</v>
+        <v>35.9666737476239</v>
       </c>
     </row>
     <row r="238">
@@ -2315,7 +2315,7 @@
         <v>45930</v>
       </c>
       <c r="B238" t="n">
-        <v>30.81355056452284</v>
+        <v>34.43594367495817</v>
       </c>
     </row>
     <row r="239">
@@ -2323,7 +2323,7 @@
         <v>45961</v>
       </c>
       <c r="B239" t="n">
-        <v>29.92155014088231</v>
+        <v>33.07578470450567</v>
       </c>
     </row>
     <row r="240">
@@ -2331,7 +2331,7 @@
         <v>45991</v>
       </c>
       <c r="B240" t="n">
-        <v>29.49601983242187</v>
+        <v>32.39547426129927</v>
       </c>
     </row>
     <row r="241">
@@ -2339,7 +2339,7 @@
         <v>46022</v>
       </c>
       <c r="B241" t="n">
-        <v>29.0798620323244</v>
+        <v>32.21250262805879</v>
       </c>
     </row>
     <row r="242">
@@ -2347,7 +2347,7 @@
         <v>46053</v>
       </c>
       <c r="B242" t="n">
-        <v>27.74665938406453</v>
+        <v>30.76803794362814</v>
       </c>
     </row>
     <row r="243">
@@ -2355,7 +2355,7 @@
         <v>46081</v>
       </c>
       <c r="B243" t="n">
-        <v>26.97884247874631</v>
+        <v>29.6707592256763</v>
       </c>
     </row>
     <row r="244">
@@ -2363,7 +2363,15 @@
         <v>46112</v>
       </c>
       <c r="B244" t="n">
-        <v>26.37583038012132</v>
+        <v>29.03095886725275</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>46142</v>
+      </c>
+      <c r="B245" t="n">
+        <v>28.13900244813752</v>
       </c>
     </row>
   </sheetData>

--- a/tüfetahmin.xlsx
+++ b/tüfetahmin.xlsx
@@ -2235,7 +2235,7 @@
         <v>45626</v>
       </c>
       <c r="B228" t="n">
-        <v>46.85407448565173</v>
+        <v>46.79464181213883</v>
       </c>
     </row>
     <row r="229">
@@ -2243,7 +2243,7 @@
         <v>45657</v>
       </c>
       <c r="B229" t="n">
-        <v>45.18828935242154</v>
+        <v>45.0441556798777</v>
       </c>
     </row>
     <row r="230">
@@ -2251,7 +2251,7 @@
         <v>45688</v>
       </c>
       <c r="B230" t="n">
-        <v>42.54070265292131</v>
+        <v>43.06318750063618</v>
       </c>
     </row>
     <row r="231">
@@ -2259,7 +2259,7 @@
         <v>45716</v>
       </c>
       <c r="B231" t="n">
-        <v>39.96332350645415</v>
+        <v>40.46143402944649</v>
       </c>
     </row>
     <row r="232">
@@ -2267,7 +2267,7 @@
         <v>45747</v>
       </c>
       <c r="B232" t="n">
-        <v>38.70076228630423</v>
+        <v>39.17826461959091</v>
       </c>
     </row>
     <row r="233">
@@ -2275,7 +2275,7 @@
         <v>45777</v>
       </c>
       <c r="B233" t="n">
-        <v>37.6658855538645</v>
+        <v>38.12054613991307</v>
       </c>
     </row>
     <row r="234">
@@ -2283,7 +2283,7 @@
         <v>45808</v>
       </c>
       <c r="B234" t="n">
-        <v>36.50097894001585</v>
+        <v>36.93518810367367</v>
       </c>
     </row>
     <row r="235">
@@ -2291,7 +2291,7 @@
         <v>45838</v>
       </c>
       <c r="B235" t="n">
-        <v>37.76931134592974</v>
+        <v>38.18932784927076</v>
       </c>
     </row>
     <row r="236">
@@ -2299,7 +2299,7 @@
         <v>45869</v>
       </c>
       <c r="B236" t="n">
-        <v>36.64344748596415</v>
+        <v>37.04408805278501</v>
       </c>
     </row>
     <row r="237">
@@ -2307,7 +2307,7 @@
         <v>45900</v>
       </c>
       <c r="B237" t="n">
-        <v>35.9666737476239</v>
+        <v>36.3515570061534</v>
       </c>
     </row>
     <row r="238">
@@ -2315,7 +2315,7 @@
         <v>45930</v>
       </c>
       <c r="B238" t="n">
-        <v>34.43594367495817</v>
+        <v>34.80342844395044</v>
       </c>
     </row>
     <row r="239">
@@ -2323,7 +2323,7 @@
         <v>45961</v>
       </c>
       <c r="B239" t="n">
-        <v>33.07578470450567</v>
+        <v>33.42727396059995</v>
       </c>
     </row>
     <row r="240">
@@ -2331,7 +2331,7 @@
         <v>45991</v>
       </c>
       <c r="B240" t="n">
-        <v>32.39547426129927</v>
+        <v>32.78314238274189</v>
       </c>
     </row>
     <row r="241">
@@ -2339,7 +2339,7 @@
         <v>46022</v>
       </c>
       <c r="B241" t="n">
-        <v>32.21250262805879</v>
+        <v>32.66335626522894</v>
       </c>
     </row>
     <row r="242">
@@ -2347,7 +2347,7 @@
         <v>46053</v>
       </c>
       <c r="B242" t="n">
-        <v>30.76803794362814</v>
+        <v>30.55235976784123</v>
       </c>
     </row>
     <row r="243">
@@ -2355,7 +2355,7 @@
         <v>46081</v>
       </c>
       <c r="B243" t="n">
-        <v>29.6707592256763</v>
+        <v>29.46101401276122</v>
       </c>
     </row>
     <row r="244">
@@ -2363,7 +2363,7 @@
         <v>46112</v>
       </c>
       <c r="B244" t="n">
-        <v>29.03095886725275</v>
+        <v>28.82539679292333</v>
       </c>
     </row>
     <row r="245">
@@ -2371,7 +2371,7 @@
         <v>46142</v>
       </c>
       <c r="B245" t="n">
-        <v>28.13900244813752</v>
+        <v>27.93942332838837</v>
       </c>
     </row>
   </sheetData>

--- a/tüfetahmin.xlsx
+++ b/tüfetahmin.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,7 +1179,7 @@
         <v>41608</v>
       </c>
       <c r="B96" t="n">
-        <v>7.315695320591287</v>
+        <v>7.315695320591264</v>
       </c>
     </row>
     <row r="97">
@@ -1187,7 +1187,7 @@
         <v>41639</v>
       </c>
       <c r="B97" t="n">
-        <v>7.400459597617592</v>
+        <v>7.400459597617615</v>
       </c>
     </row>
     <row r="98">
@@ -1203,7 +1203,7 @@
         <v>41698</v>
       </c>
       <c r="B99" t="n">
-        <v>7.889047334284038</v>
+        <v>7.889047334284061</v>
       </c>
     </row>
     <row r="100">
@@ -1259,7 +1259,7 @@
         <v>41912</v>
       </c>
       <c r="B106" t="n">
-        <v>8.856236880889634</v>
+        <v>8.856236880889611</v>
       </c>
     </row>
     <row r="107">
@@ -1267,7 +1267,7 @@
         <v>41943</v>
       </c>
       <c r="B107" t="n">
-        <v>8.962884969728835</v>
+        <v>8.962884969728858</v>
       </c>
     </row>
     <row r="108">
@@ -1275,7 +1275,7 @@
         <v>41973</v>
       </c>
       <c r="B108" t="n">
-        <v>9.150728197929435</v>
+        <v>9.150728197929459</v>
       </c>
     </row>
     <row r="109">
@@ -1283,7 +1283,7 @@
         <v>42004</v>
       </c>
       <c r="B109" t="n">
-        <v>8.169948910527935</v>
+        <v>8.169948910527914</v>
       </c>
     </row>
     <row r="110">
@@ -1291,7 +1291,7 @@
         <v>42035</v>
       </c>
       <c r="B110" t="n">
-        <v>7.240729639462207</v>
+        <v>7.240729639462185</v>
       </c>
     </row>
     <row r="111">
@@ -1299,7 +1299,7 @@
         <v>42063</v>
       </c>
       <c r="B111" t="n">
-        <v>7.5466871322589</v>
+        <v>7.546687132258878</v>
       </c>
     </row>
     <row r="112">
@@ -1803,7 +1803,7 @@
         <v>43982</v>
       </c>
       <c r="B174" t="n">
-        <v>11.39001741149157</v>
+        <v>11.39001741149159</v>
       </c>
     </row>
     <row r="175">
@@ -1835,7 +1835,7 @@
         <v>44104</v>
       </c>
       <c r="B178" t="n">
-        <v>11.74831397527163</v>
+        <v>11.74831397527161</v>
       </c>
     </row>
     <row r="179">
@@ -1851,7 +1851,7 @@
         <v>44165</v>
       </c>
       <c r="B180" t="n">
-        <v>14.02630074328186</v>
+        <v>14.02630074328188</v>
       </c>
     </row>
     <row r="181">
@@ -1899,7 +1899,7 @@
         <v>44347</v>
       </c>
       <c r="B186" t="n">
-        <v>16.5928531110243</v>
+        <v>16.59285311102428</v>
       </c>
     </row>
     <row r="187">
@@ -1939,7 +1939,7 @@
         <v>44500</v>
       </c>
       <c r="B191" t="n">
-        <v>19.89002421108786</v>
+        <v>19.89002421108788</v>
       </c>
     </row>
     <row r="192">
@@ -1947,7 +1947,7 @@
         <v>44530</v>
       </c>
       <c r="B192" t="n">
-        <v>21.31252757832245</v>
+        <v>21.31252757832243</v>
       </c>
     </row>
     <row r="193">
@@ -1995,7 +1995,7 @@
         <v>44712</v>
       </c>
       <c r="B198" t="n">
-        <v>73.49595009775626</v>
+        <v>73.49595009775625</v>
       </c>
     </row>
     <row r="199">
@@ -2155,7 +2155,7 @@
         <v>45322</v>
       </c>
       <c r="B218" t="n">
-        <v>64.85691494665475</v>
+        <v>64.85691494665473</v>
       </c>
     </row>
     <row r="219">
@@ -2235,7 +2235,7 @@
         <v>45626</v>
       </c>
       <c r="B228" t="n">
-        <v>46.79464181213883</v>
+        <v>47.0927207306947</v>
       </c>
     </row>
     <row r="229">
@@ -2243,7 +2243,7 @@
         <v>45657</v>
       </c>
       <c r="B229" t="n">
-        <v>45.0441556798777</v>
+        <v>44.37877141842974</v>
       </c>
     </row>
     <row r="230">
@@ -2251,7 +2251,7 @@
         <v>45688</v>
       </c>
       <c r="B230" t="n">
-        <v>43.06318750063618</v>
+        <v>42.11802300380039</v>
       </c>
     </row>
     <row r="231">
@@ -2259,7 +2259,7 @@
         <v>45716</v>
       </c>
       <c r="B231" t="n">
-        <v>40.46143402944649</v>
+        <v>39.05095762532063</v>
       </c>
     </row>
     <row r="232">
@@ -2267,7 +2267,7 @@
         <v>45747</v>
       </c>
       <c r="B232" t="n">
-        <v>39.17826461959091</v>
+        <v>38.10382945308884</v>
       </c>
     </row>
     <row r="233">
@@ -2275,7 +2275,7 @@
         <v>45777</v>
       </c>
       <c r="B233" t="n">
-        <v>38.12054613991307</v>
+        <v>37.85866364665911</v>
       </c>
     </row>
     <row r="234">
@@ -2283,7 +2283,7 @@
         <v>45808</v>
       </c>
       <c r="B234" t="n">
-        <v>36.93518810367367</v>
+        <v>36.44949162110143</v>
       </c>
     </row>
     <row r="235">
@@ -2291,7 +2291,7 @@
         <v>45838</v>
       </c>
       <c r="B235" t="n">
-        <v>38.18932784927076</v>
+        <v>37.22376312863662</v>
       </c>
     </row>
     <row r="236">
@@ -2299,7 +2299,7 @@
         <v>45869</v>
       </c>
       <c r="B236" t="n">
-        <v>37.04408805278501</v>
+        <v>35.73565739699149</v>
       </c>
     </row>
     <row r="237">
@@ -2307,7 +2307,7 @@
         <v>45900</v>
       </c>
       <c r="B237" t="n">
-        <v>36.3515570061534</v>
+        <v>35.25755139121056</v>
       </c>
     </row>
     <row r="238">
@@ -2315,7 +2315,7 @@
         <v>45930</v>
       </c>
       <c r="B238" t="n">
-        <v>34.80342844395044</v>
+        <v>33.95388823043015</v>
       </c>
     </row>
     <row r="239">
@@ -2323,7 +2323,7 @@
         <v>45961</v>
       </c>
       <c r="B239" t="n">
-        <v>33.42727396059995</v>
+        <v>33.09017384384898</v>
       </c>
     </row>
     <row r="240">
@@ -2331,7 +2331,7 @@
         <v>45991</v>
       </c>
       <c r="B240" t="n">
-        <v>32.78314238274189</v>
+        <v>32.56577763200808</v>
       </c>
     </row>
     <row r="241">
@@ -2339,7 +2339,7 @@
         <v>46022</v>
       </c>
       <c r="B241" t="n">
-        <v>32.66335626522894</v>
+        <v>33.47626276169076</v>
       </c>
     </row>
     <row r="242">
@@ -2347,7 +2347,7 @@
         <v>46053</v>
       </c>
       <c r="B242" t="n">
-        <v>30.55235976784123</v>
+        <v>31.2089140038313</v>
       </c>
     </row>
     <row r="243">
@@ -2355,7 +2355,7 @@
         <v>46081</v>
       </c>
       <c r="B243" t="n">
-        <v>29.46101401276122</v>
+        <v>30.64669071574755</v>
       </c>
     </row>
     <row r="244">
@@ -2363,7 +2363,7 @@
         <v>46112</v>
       </c>
       <c r="B244" t="n">
-        <v>28.82539679292333</v>
+        <v>29.79052639923565</v>
       </c>
     </row>
     <row r="245">
@@ -2371,7 +2371,23 @@
         <v>46142</v>
       </c>
       <c r="B245" t="n">
-        <v>27.93942332838837</v>
+        <v>28.32846632563293</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>46173</v>
+      </c>
+      <c r="B246" t="n">
+        <v>27.76881619998355</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>46203</v>
+      </c>
+      <c r="B247" t="n">
+        <v>27.49380489099544</v>
       </c>
     </row>
   </sheetData>
